--- a/target/classes/com/qa/testdata/test.xlsx
+++ b/target/classes/com/qa/testdata/test.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\MyWorkspace\CRMTest\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\MyWorkspace\CRMTest\src\main\java\com\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3438A006-3FAD-47A5-B2E7-0ECA05583F85}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3FCBEC-8288-4A6B-B1AD-A96FEB2AE121}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DE745A63-A600-4AE1-99D2-A8128E0BDE4F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Datasheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Contacts" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,24 +26,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>surname</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Cena</t>
+  </si>
+  <si>
+    <t>WWE</t>
+  </si>
+  <si>
+    <t>Mayuri</t>
+  </si>
+  <si>
+    <t>Malusare</t>
+  </si>
+  <si>
+    <t>Wockhardt</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Mishra</t>
+  </si>
+  <si>
+    <t>Yahoo</t>
+  </si>
+  <si>
+    <t>Deepak</t>
+  </si>
+  <si>
+    <t>Choursia</t>
+  </si>
+  <si>
+    <t>T&amp;T</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>Dr.</t>
   </si>
 </sst>
 </file>
@@ -394,55 +431,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9584BFAD-F180-4752-829D-9CA2B9417B5D}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C590468-8BE0-4209-8461-B5E370A533CB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>